--- a/data/trans_orig/P6710-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P6710-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>34520</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24500</v>
+        <v>24544</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47784</v>
+        <v>49015</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1250075397271102</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08872254706421656</v>
+        <v>0.08888236660110524</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1730436554911351</v>
+        <v>0.1774999433610889</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -763,19 +763,19 @@
         <v>36848</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26628</v>
+        <v>25735</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49460</v>
+        <v>49157</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1664334105033544</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1202719944881976</v>
+        <v>0.1162371979938315</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2233986320796566</v>
+        <v>0.2220303526750217</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>66</v>
@@ -784,19 +784,19 @@
         <v>71368</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>57450</v>
+        <v>57337</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>89249</v>
+        <v>89429</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1434415397857272</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1154683797620071</v>
+        <v>0.1152420165758825</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1793809604210312</v>
+        <v>0.1797431616460935</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>15310</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8749</v>
+        <v>8779</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25307</v>
+        <v>26603</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05544302306818133</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03168349971554506</v>
+        <v>0.03179025891514637</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.091646898365324</v>
+        <v>0.09633825322103262</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -834,19 +834,19 @@
         <v>33134</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>23168</v>
+        <v>23033</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45890</v>
+        <v>45723</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1496595624982844</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1046433276536291</v>
+        <v>0.1040319757041355</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2072731261174573</v>
+        <v>0.2065185408073546</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>43</v>
@@ -855,19 +855,19 @@
         <v>48444</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>34970</v>
+        <v>36869</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>63384</v>
+        <v>63938</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09736821765873614</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0702851541981782</v>
+        <v>0.07410284910712696</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1273943923750536</v>
+        <v>0.1285093278547164</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>61341</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>48252</v>
+        <v>47625</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>76378</v>
+        <v>76023</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2221378890703448</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1747373818379538</v>
+        <v>0.1724652115136196</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2765903170976082</v>
+        <v>0.2753051646542238</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>33</v>
@@ -905,19 +905,19 @@
         <v>35835</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25665</v>
+        <v>25366</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>49364</v>
+        <v>47791</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.161856634856363</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1159199707281991</v>
+        <v>0.1145724574404393</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2229641469434525</v>
+        <v>0.2158577464181708</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>89</v>
@@ -926,19 +926,19 @@
         <v>97176</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>78699</v>
+        <v>79160</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>117805</v>
+        <v>116812</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1953134766224769</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1581756514672817</v>
+        <v>0.15910263918497</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2367758233523981</v>
+        <v>0.2347798132818815</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>53687</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>41589</v>
+        <v>41467</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66357</v>
+        <v>68240</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1944204390619109</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1506101064361633</v>
+        <v>0.1501669679472397</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2403031278647128</v>
+        <v>0.2471225567436714</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -976,19 +976,19 @@
         <v>30791</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21013</v>
+        <v>21428</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42984</v>
+        <v>42585</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1390748796787203</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09491191961335271</v>
+        <v>0.09678466522796697</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1941458441708463</v>
+        <v>0.1923450687342743</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>80</v>
@@ -997,19 +997,19 @@
         <v>84478</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>67859</v>
+        <v>67306</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>102744</v>
+        <v>102210</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1697923497593442</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1363883132762074</v>
+        <v>0.1352786736141653</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2065045410348779</v>
+        <v>0.2054310116680537</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>111282</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>94983</v>
+        <v>95336</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>129012</v>
+        <v>128394</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4029911090724529</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3439671556567757</v>
+        <v>0.3452465359557869</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4671992047511986</v>
+        <v>0.4649586956419216</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>78</v>
@@ -1047,19 +1047,19 @@
         <v>84790</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>70188</v>
+        <v>70592</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>101035</v>
+        <v>99979</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3829755124632778</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3170194037811994</v>
+        <v>0.3188434387040333</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4563500727059154</v>
+        <v>0.4515763179110993</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>183</v>
@@ -1068,19 +1068,19 @@
         <v>196072</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>172105</v>
+        <v>174378</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>219388</v>
+        <v>218275</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3940844161737154</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3459128892043715</v>
+        <v>0.3504816099079928</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4409455100461996</v>
+        <v>0.4387088398034258</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>38451</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27827</v>
+        <v>27145</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51061</v>
+        <v>51724</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1012312698730029</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07326076405094555</v>
+        <v>0.0714652092461544</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.134430267627516</v>
+        <v>0.1361759255049707</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -1193,19 +1193,19 @@
         <v>33753</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23174</v>
+        <v>23469</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46076</v>
+        <v>46215</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1328313851123298</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0911996291308525</v>
+        <v>0.09235689485578792</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.181326452718724</v>
+        <v>0.1818721739906074</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>70</v>
@@ -1214,19 +1214,19 @@
         <v>72204</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57772</v>
+        <v>57908</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>88610</v>
+        <v>89168</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.113897841718309</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0911312149359173</v>
+        <v>0.09134707236494267</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1397767378164144</v>
+        <v>0.1406566377086301</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>50404</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>37990</v>
+        <v>39213</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>63900</v>
+        <v>66409</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1327026098929137</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1000184109239028</v>
+        <v>0.1032375808252251</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1682327982450439</v>
+        <v>0.174839639137971</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -1264,19 +1264,19 @@
         <v>29138</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20232</v>
+        <v>19727</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>42614</v>
+        <v>40365</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1146663627891496</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0796202803332263</v>
+        <v>0.07763240472430503</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.167699510421135</v>
+        <v>0.1588501560200972</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>75</v>
@@ -1285,19 +1285,19 @@
         <v>79542</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>64298</v>
+        <v>64214</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>96675</v>
+        <v>98128</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1254729710757994</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1014258810912576</v>
+        <v>0.1012933146711258</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.152499256016892</v>
+        <v>0.1547918211276114</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>79828</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>64823</v>
+        <v>65315</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>95915</v>
+        <v>97911</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2101683469995214</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1706638319786051</v>
+        <v>0.1719581304302368</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2525216598453993</v>
+        <v>0.2577757380051007</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>43</v>
@@ -1335,19 +1335,19 @@
         <v>46558</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>34436</v>
+        <v>36206</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>60434</v>
+        <v>61700</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.183222370195235</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1355174209197446</v>
+        <v>0.1424847712932766</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2378293099281018</v>
+        <v>0.2428112583075262</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>120</v>
@@ -1356,19 +1356,19 @@
         <v>126387</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>106543</v>
+        <v>105858</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>147473</v>
+        <v>147460</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1993673373022948</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1680657917716844</v>
+        <v>0.166985470621304</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2326295675168849</v>
+        <v>0.2326089817059793</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>84545</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>69580</v>
+        <v>69628</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>101515</v>
+        <v>102210</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2225857915529162</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1831865175822049</v>
+        <v>0.1833131999262354</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.267263178598093</v>
+        <v>0.2690950169668313</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -1406,19 +1406,19 @@
         <v>51278</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38682</v>
+        <v>38065</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65335</v>
+        <v>66035</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2017968284234768</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1522275607779444</v>
+        <v>0.1497979791548879</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2571153714176697</v>
+        <v>0.2598702983855374</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>127</v>
@@ -1427,19 +1427,19 @@
         <v>135823</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>115546</v>
+        <v>115174</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>157683</v>
+        <v>158207</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2142527556423144</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.182266643444777</v>
+        <v>0.1816806451757835</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2487363223547476</v>
+        <v>0.2495620111024728</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>126602</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>107704</v>
+        <v>109888</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>145326</v>
+        <v>148662</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3333119816816458</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2835595788366141</v>
+        <v>0.2893093839203688</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3826071854739177</v>
+        <v>0.3913910384199225</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>85</v>
@@ -1477,19 +1477,19 @@
         <v>93380</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>78718</v>
+        <v>77958</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>110185</v>
+        <v>110802</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.367483053479809</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3097810282823241</v>
+        <v>0.3067902202415513</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4336178595374987</v>
+        <v>0.4360458782155807</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>207</v>
@@ -1498,19 +1498,19 @@
         <v>219982</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>195572</v>
+        <v>197538</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>246907</v>
+        <v>246327</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3470090942612823</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3085027445010946</v>
+        <v>0.311603891264401</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3894809789293746</v>
+        <v>0.3885670456088405</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>36556</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25719</v>
+        <v>26027</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50054</v>
+        <v>51023</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08104034654467547</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0570167970023113</v>
+        <v>0.05769878564632568</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1109634423180999</v>
+        <v>0.1131126143663629</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -1623,19 +1623,19 @@
         <v>23915</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15512</v>
+        <v>15157</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36015</v>
+        <v>36308</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08642560205371375</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05606053842052092</v>
+        <v>0.05477709520033827</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1301561461006237</v>
+        <v>0.1312127494451003</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -1644,19 +1644,19 @@
         <v>60470</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>45768</v>
+        <v>46360</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>77213</v>
+        <v>77574</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08308784016567576</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06288651315032116</v>
+        <v>0.06369989618170659</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1060927764005572</v>
+        <v>0.1065881321705383</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>30109</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19559</v>
+        <v>20317</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>43349</v>
+        <v>43246</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06674920482671867</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04336060870946132</v>
+        <v>0.04504122189845909</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09609913082280236</v>
+        <v>0.09587185337086428</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -1694,19 +1694,19 @@
         <v>15738</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9065</v>
+        <v>9102</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24528</v>
+        <v>24774</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.056874345025567</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03276139607057049</v>
+        <v>0.03289439067604839</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08864365273132929</v>
+        <v>0.08953099510099723</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>42</v>
@@ -1715,19 +1715,19 @@
         <v>45847</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>33598</v>
+        <v>33856</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>61760</v>
+        <v>60707</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06299474741662989</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04616498737300734</v>
+        <v>0.046519129958367</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08485928711387951</v>
+        <v>0.08341233477421514</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>100578</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>82863</v>
+        <v>82838</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>118401</v>
+        <v>119091</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2229712241052713</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1836989518808388</v>
+        <v>0.1836424328166982</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2624813900833923</v>
+        <v>0.2640121842093876</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>52</v>
@@ -1765,19 +1765,19 @@
         <v>54604</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>42973</v>
+        <v>40760</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>68426</v>
+        <v>68402</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1973356833336502</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1553007758714538</v>
+        <v>0.1473020365483309</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.247286078925173</v>
+        <v>0.2471996243197199</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>147</v>
@@ -1786,19 +1786,19 @@
         <v>155183</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>135072</v>
+        <v>133068</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>182327</v>
+        <v>180154</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2132244987896956</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1855918068392065</v>
+        <v>0.1828390795338599</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2505213270272871</v>
+        <v>0.247535523655482</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>92934</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>75608</v>
+        <v>75282</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>109010</v>
+        <v>109133</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2060249248611598</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1676144890881877</v>
+        <v>0.1668919452726013</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2416636514402438</v>
+        <v>0.2419357226996172</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>69</v>
@@ -1836,19 +1836,19 @@
         <v>71580</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>57367</v>
+        <v>58126</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>85777</v>
+        <v>86236</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.258683973662284</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2073213907784867</v>
+        <v>0.210063664784547</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3099928424235049</v>
+        <v>0.3116481998928713</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>162</v>
@@ -1857,19 +1857,19 @@
         <v>164514</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>141918</v>
+        <v>144526</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>186312</v>
+        <v>190055</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2260460856635187</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1949983564534212</v>
+        <v>0.1985822748601743</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2559970418671756</v>
+        <v>0.2611392702449101</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>190904</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>171388</v>
+        <v>168841</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>213410</v>
+        <v>213905</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4232142996621747</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.379948406084911</v>
+        <v>0.3743019752106387</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4731060250871825</v>
+        <v>0.4742044992409181</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>104</v>
@@ -1907,19 +1907,19 @@
         <v>110871</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>95475</v>
+        <v>94840</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>126898</v>
+        <v>127671</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.400680395924785</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.345039024805244</v>
+        <v>0.3427436738048398</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4585984426091848</v>
+        <v>0.4613939421362168</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>284</v>
@@ -1928,19 +1928,19 @@
         <v>301776</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>276290</v>
+        <v>272667</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>332317</v>
+        <v>327565</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.41464682796448</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3796291189224271</v>
+        <v>0.3746512332802254</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4566117742753575</v>
+        <v>0.4500811355873958</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>29063</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20348</v>
+        <v>19435</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>41702</v>
+        <v>41355</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09839047048837955</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06888668820823533</v>
+        <v>0.06579670666532453</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1411785856841125</v>
+        <v>0.1400044971579587</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>27</v>
@@ -2053,19 +2053,19 @@
         <v>28295</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19378</v>
+        <v>18339</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>39267</v>
+        <v>39221</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1541523270521186</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1055716511951988</v>
+        <v>0.09991085918172403</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2139331232983291</v>
+        <v>0.213681133177416</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>54</v>
@@ -2074,19 +2074,19 @@
         <v>57357</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>44740</v>
+        <v>43155</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>73414</v>
+        <v>72891</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1197610518073617</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09341631336799545</v>
+        <v>0.09010717457849068</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1532875557010727</v>
+        <v>0.1521958630670788</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>16182</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9688</v>
+        <v>9564</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>29130</v>
+        <v>28031</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05478300177246231</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03279654317230629</v>
+        <v>0.03237856197999241</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09861794682788473</v>
+        <v>0.09489836591726762</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>11</v>
@@ -2124,19 +2124,19 @@
         <v>12958</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6685</v>
+        <v>7003</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>23058</v>
+        <v>23112</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07059805969985233</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0364203754167422</v>
+        <v>0.03815118664246505</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1256240625981271</v>
+        <v>0.1259192570296229</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>24</v>
@@ -2145,19 +2145,19 @@
         <v>29140</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>19783</v>
+        <v>18131</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>43192</v>
+        <v>42844</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06084408012116067</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04130633362703938</v>
+        <v>0.03785739440091076</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09018430460579185</v>
+        <v>0.08945729571425468</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>51841</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>39177</v>
+        <v>38080</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>66092</v>
+        <v>66132</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1755040194667502</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1326327609545082</v>
+        <v>0.1289192841581979</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2237521499381427</v>
+        <v>0.2238869426069758</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>35</v>
@@ -2195,19 +2195,19 @@
         <v>39337</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>28674</v>
+        <v>28098</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>52845</v>
+        <v>53326</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2143121087879977</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1562225552708679</v>
+        <v>0.1530843842168183</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.287908037403095</v>
+        <v>0.2905266874738639</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>81</v>
@@ -2216,19 +2216,19 @@
         <v>91178</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>74294</v>
+        <v>72962</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>112185</v>
+        <v>112183</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1903771151594313</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1551238964518813</v>
+        <v>0.1523444350718955</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2342397010059635</v>
+        <v>0.2342369430040011</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>66639</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>53404</v>
+        <v>53369</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>82316</v>
+        <v>81821</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2256033084381613</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1807957549659945</v>
+        <v>0.1806786138959119</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.278676300021129</v>
+        <v>0.2770011713668236</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>33</v>
@@ -2266,19 +2266,19 @@
         <v>34253</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>25653</v>
+        <v>25280</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>47312</v>
+        <v>47153</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1866127477181379</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1397624122385664</v>
+        <v>0.1377264465438581</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2577633406745155</v>
+        <v>0.2568972992100423</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>97</v>
@@ -2287,19 +2287,19 @@
         <v>100892</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>83248</v>
+        <v>84068</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>119749</v>
+        <v>121176</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2106602810734336</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1738205773023613</v>
+        <v>0.1755334558425714</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2500345026858243</v>
+        <v>0.2530143095871536</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>131657</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>114674</v>
+        <v>113374</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>149923</v>
+        <v>148855</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4457191998342466</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3882239885539477</v>
+        <v>0.3838221155006782</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5075549787645063</v>
+        <v>0.5039397341577377</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>60</v>
@@ -2337,19 +2337,19 @@
         <v>68707</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>54810</v>
+        <v>55040</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>82330</v>
+        <v>83336</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3743247567418934</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2986104411693283</v>
+        <v>0.2998644130218866</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4485430597142161</v>
+        <v>0.4540270595467922</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>178</v>
@@ -2358,19 +2358,19 @@
         <v>200364</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>176706</v>
+        <v>176987</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>222997</v>
+        <v>223743</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4183574718386127</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3689588714807066</v>
+        <v>0.3695450217367169</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4656144774294383</v>
+        <v>0.4671717175702395</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>138589</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>116152</v>
+        <v>115018</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>162453</v>
+        <v>161769</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09882025987770521</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08282162170382719</v>
+        <v>0.0820127917164505</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1158362980619512</v>
+        <v>0.1153487636951545</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>114</v>
@@ -2483,19 +2483,19 @@
         <v>122811</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>104236</v>
+        <v>102219</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>145411</v>
+        <v>144179</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1312412591982066</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1113917282743606</v>
+        <v>0.1092360043947627</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1553925163870066</v>
+        <v>0.1540768021525808</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>243</v>
@@ -2504,19 +2504,19 @@
         <v>261400</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>230898</v>
+        <v>230169</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>296281</v>
+        <v>293042</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1117953743232614</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09875047900029293</v>
+        <v>0.09843886449966718</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1267136031490722</v>
+        <v>0.125328232745117</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>112006</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>91286</v>
+        <v>91555</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>134985</v>
+        <v>134136</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07986526603530777</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06509132652958703</v>
+        <v>0.06528294771448671</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09625086703815137</v>
+        <v>0.09564511298409289</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>82</v>
@@ -2554,19 +2554,19 @@
         <v>90968</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>72577</v>
+        <v>72920</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>109265</v>
+        <v>111138</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09721240738441157</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07755887528599215</v>
+        <v>0.07792602576935742</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1167654041682641</v>
+        <v>0.1187671968943029</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>184</v>
@@ -2575,19 +2575,19 @@
         <v>202974</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>173565</v>
+        <v>173973</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>233405</v>
+        <v>233140</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08680771534363406</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07423038529653911</v>
+        <v>0.07440483724145004</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09982246503058781</v>
+        <v>0.09970912077513248</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>293588</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>262225</v>
+        <v>263941</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>323527</v>
+        <v>326147</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2093420707875278</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1869785979491491</v>
+        <v>0.1882020305536032</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2306896409071121</v>
+        <v>0.2325581675252884</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>163</v>
@@ -2625,19 +2625,19 @@
         <v>176334</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>152304</v>
+        <v>152189</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>203603</v>
+        <v>199323</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1884388727413021</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1627588704567136</v>
+        <v>0.1626366562696696</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2175797728958799</v>
+        <v>0.2130057675962891</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>437</v>
@@ -2646,19 +2646,19 @@
         <v>469923</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>430487</v>
+        <v>427795</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>516954</v>
+        <v>508074</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.200976462304991</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1841106147494506</v>
+        <v>0.1829594239188528</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2210908606534341</v>
+        <v>0.2172931301461862</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>297805</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>267621</v>
+        <v>269974</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>328631</v>
+        <v>331788</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2123488948199634</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1908259529239448</v>
+        <v>0.192503861106353</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2343287466926313</v>
+        <v>0.2365801250451424</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>177</v>
@@ -2696,19 +2696,19 @@
         <v>187902</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>163688</v>
+        <v>164915</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>216668</v>
+        <v>214653</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2008003789839119</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1749250870833544</v>
+        <v>0.1762363291070856</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2315410523913315</v>
+        <v>0.2293885710113884</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>466</v>
@@ -2717,19 +2717,19 @@
         <v>485707</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>444102</v>
+        <v>444309</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>525791</v>
+        <v>522520</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2077270966709368</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1899336616729888</v>
+        <v>0.1900219558697724</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2248701518362336</v>
+        <v>0.2234712767991051</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>560446</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>520674</v>
+        <v>525824</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>596902</v>
+        <v>603125</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3996235084794958</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3712646641452224</v>
+        <v>0.3749369444194559</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4256186291976614</v>
+        <v>0.4300562387551147</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>327</v>
@@ -2767,19 +2767,19 @@
         <v>357749</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>324281</v>
+        <v>327872</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>388174</v>
+        <v>389679</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3823070816921679</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3465418695683406</v>
+        <v>0.3503794637855255</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4148206569250674</v>
+        <v>0.4164288085497814</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>852</v>
@@ -2788,19 +2788,19 @@
         <v>918194</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>871164</v>
+        <v>870006</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>966816</v>
+        <v>968897</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3926933513571768</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3725793865238607</v>
+        <v>0.3720841268740497</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4134878056848717</v>
+        <v>0.4143780342807079</v>
       </c>
     </row>
     <row r="33">
@@ -3132,19 +3132,19 @@
         <v>33106</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23581</v>
+        <v>23235</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46580</v>
+        <v>45769</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.112768001720568</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08032323315715834</v>
+        <v>0.07914396071364264</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1586618846477516</v>
+        <v>0.1559009223814874</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -3153,19 +3153,19 @@
         <v>43284</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31593</v>
+        <v>31620</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55545</v>
+        <v>57433</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1561314213167189</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1139602130499462</v>
+        <v>0.1140573276987393</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2003550069948873</v>
+        <v>0.2071649709306529</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>72</v>
@@ -3174,19 +3174,19 @@
         <v>76391</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>60157</v>
+        <v>61907</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>95273</v>
+        <v>95992</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1338287730338606</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1053893463077528</v>
+        <v>0.1084548629027651</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1669093787601503</v>
+        <v>0.1681689487724271</v>
       </c>
     </row>
     <row r="5">
@@ -3203,19 +3203,19 @@
         <v>54443</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>41742</v>
+        <v>42121</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>69936</v>
+        <v>67317</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1854463804508316</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1421846489094125</v>
+        <v>0.1434731498947326</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2382191552683441</v>
+        <v>0.2292971113638281</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>56</v>
@@ -3224,19 +3224,19 @@
         <v>55070</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43172</v>
+        <v>43571</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>67889</v>
+        <v>68918</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1986438574525417</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1557239838572154</v>
+        <v>0.1571654256647252</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2448817526276462</v>
+        <v>0.2485939823882675</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>104</v>
@@ -3245,19 +3245,19 @@
         <v>109513</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>90806</v>
+        <v>91384</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>128365</v>
+        <v>128172</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1918561388977906</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1590824944117925</v>
+        <v>0.1600953346424921</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2248831716870202</v>
+        <v>0.2245443049244689</v>
       </c>
     </row>
     <row r="6">
@@ -3274,19 +3274,19 @@
         <v>77559</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>63516</v>
+        <v>61962</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>96111</v>
+        <v>92259</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2641870284086902</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2163523610161913</v>
+        <v>0.2110583786459527</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3273766330551482</v>
+        <v>0.3142568134817095</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>74</v>
@@ -3295,19 +3295,19 @@
         <v>74735</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>60886</v>
+        <v>60755</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>90844</v>
+        <v>90591</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2695750736572164</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2196210428831767</v>
+        <v>0.2191505721031734</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.327684398945307</v>
+        <v>0.3267716212460098</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>146</v>
@@ -3316,19 +3316,19 @@
         <v>152294</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>131978</v>
+        <v>131539</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>175915</v>
+        <v>173064</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.266803897416294</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2312117623714061</v>
+        <v>0.2304426025723269</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3081847184334054</v>
+        <v>0.3031900067999407</v>
       </c>
     </row>
     <row r="7">
@@ -3345,19 +3345,19 @@
         <v>66486</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>53442</v>
+        <v>52327</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>84368</v>
+        <v>81443</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2264692039062706</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1820371381271256</v>
+        <v>0.1782381422472823</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2873788932566517</v>
+        <v>0.2774143473422898</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -3366,19 +3366,19 @@
         <v>51081</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38959</v>
+        <v>38276</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64320</v>
+        <v>64626</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1842525958235424</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1405304438480538</v>
+        <v>0.1380650609767506</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.232009129694458</v>
+        <v>0.233112739986952</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>110</v>
@@ -3387,19 +3387,19 @@
         <v>117567</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>99231</v>
+        <v>100244</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>137954</v>
+        <v>138818</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2059654166880652</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1738419806504558</v>
+        <v>0.1756181257642581</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2416811152621554</v>
+        <v>0.2431956389660186</v>
       </c>
     </row>
     <row r="8">
@@ -3416,19 +3416,19 @@
         <v>61983</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>47999</v>
+        <v>48226</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>78341</v>
+        <v>77151</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2111293855136396</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1634962741625305</v>
+        <v>0.1642709136752108</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2668499346280228</v>
+        <v>0.2627952099410669</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>50</v>
@@ -3437,19 +3437,19 @@
         <v>53061</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>40576</v>
+        <v>41354</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>67657</v>
+        <v>67998</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1913970517499805</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1463626617876893</v>
+        <v>0.1491664737459566</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2440460901765264</v>
+        <v>0.2452761116551109</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>107</v>
@@ -3458,19 +3458,19 @@
         <v>115044</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>97078</v>
+        <v>96126</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>136157</v>
+        <v>133374</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2015457739639897</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1700700792316913</v>
+        <v>0.1684036393730531</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.238532690069602</v>
+        <v>0.2336570068790082</v>
       </c>
     </row>
     <row r="9">
@@ -3562,19 +3562,19 @@
         <v>42358</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31057</v>
+        <v>30812</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56306</v>
+        <v>54370</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1084781309845402</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07953594505402699</v>
+        <v>0.07890821493580061</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1441991089815531</v>
+        <v>0.1392415998236314</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -3583,19 +3583,19 @@
         <v>35454</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25059</v>
+        <v>24923</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46706</v>
+        <v>47558</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1312866351184323</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09279218573245862</v>
+        <v>0.09228795135092531</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1729521159035981</v>
+        <v>0.1761055908329723</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -3604,19 +3604,19 @@
         <v>77812</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>62377</v>
+        <v>61450</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>94981</v>
+        <v>96617</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1178032574418844</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09443464474897637</v>
+        <v>0.09303235651316394</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1437961327526371</v>
+        <v>0.1462719747728587</v>
       </c>
     </row>
     <row r="11">
@@ -3633,19 +3633,19 @@
         <v>78215</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>63260</v>
+        <v>62134</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>96365</v>
+        <v>94173</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2003077867546812</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1620087042338857</v>
+        <v>0.1591249978628524</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2467895164965397</v>
+        <v>0.2411767965219277</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>51</v>
@@ -3654,19 +3654,19 @@
         <v>52847</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>40810</v>
+        <v>39885</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>66398</v>
+        <v>66424</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1956925945401832</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1511194656874617</v>
+        <v>0.1476943666726141</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2458691695880003</v>
+        <v>0.2459675606691846</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>126</v>
@@ -3675,19 +3675,19 @@
         <v>131062</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>111660</v>
+        <v>112348</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>152035</v>
+        <v>154105</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1984208918152979</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1690466067300315</v>
+        <v>0.1700888240465418</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2301727184803967</v>
+        <v>0.2333065053871702</v>
       </c>
     </row>
     <row r="12">
@@ -3704,19 +3704,19 @@
         <v>115456</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>96994</v>
+        <v>98922</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>133216</v>
+        <v>135849</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2956825552894872</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2484013272599649</v>
+        <v>0.2533392434505272</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.341164279170346</v>
+        <v>0.3479082651786997</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>71</v>
@@ -3725,19 +3725,19 @@
         <v>70334</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>57372</v>
+        <v>57000</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>84661</v>
+        <v>85737</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2604455643448242</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2124463821002266</v>
+        <v>0.2110683836314666</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.313498125597055</v>
+        <v>0.3174833206914069</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>182</v>
@@ -3746,19 +3746,19 @@
         <v>185790</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>162372</v>
+        <v>161220</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>209572</v>
+        <v>207512</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2812761130867735</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2458215187382581</v>
+        <v>0.2440771997825046</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3172795241851565</v>
+        <v>0.3141616523409401</v>
       </c>
     </row>
     <row r="13">
@@ -3775,19 +3775,19 @@
         <v>74267</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>59729</v>
+        <v>59420</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90451</v>
+        <v>90957</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1901964122927923</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1529661979487436</v>
+        <v>0.1521739360254795</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2316450952513207</v>
+        <v>0.2329408025642709</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>45</v>
@@ -3796,19 +3796,19 @@
         <v>45724</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33887</v>
+        <v>34242</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58349</v>
+        <v>58819</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1693163779671068</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1254838450023812</v>
+        <v>0.1267963632835331</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.216066419234667</v>
+        <v>0.2178065427563086</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>115</v>
@@ -3817,19 +3817,19 @@
         <v>119991</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>101059</v>
+        <v>99917</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>141057</v>
+        <v>140060</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.181659729686265</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1529980003293699</v>
+        <v>0.1512688614352454</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2135516262899904</v>
+        <v>0.2120434472726044</v>
       </c>
     </row>
     <row r="14">
@@ -3846,19 +3846,19 @@
         <v>80178</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>65284</v>
+        <v>65099</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>97623</v>
+        <v>97257</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2053351146784991</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1671923072830227</v>
+        <v>0.1667188894079245</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2500115661932657</v>
+        <v>0.2490744907472678</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>61</v>
@@ -3867,19 +3867,19 @@
         <v>65693</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51530</v>
+        <v>52341</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>79926</v>
+        <v>81559</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2432588280294535</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1908158889996477</v>
+        <v>0.1938190536604919</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2959626159629619</v>
+        <v>0.3020129270940079</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>137</v>
@@ -3888,19 +3888,19 @@
         <v>145871</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>124181</v>
+        <v>124320</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>169322</v>
+        <v>169787</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2208400079697793</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1880027599923161</v>
+        <v>0.1882130508164032</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2563434293060103</v>
+        <v>0.2570477154698956</v>
       </c>
     </row>
     <row r="15">
@@ -3992,19 +3992,19 @@
         <v>60282</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>46826</v>
+        <v>45367</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>74997</v>
+        <v>76583</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.132142727410935</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1026466727057181</v>
+        <v>0.09944772773090933</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1644003742297613</v>
+        <v>0.1678752968520239</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>40</v>
@@ -4013,19 +4013,19 @@
         <v>38680</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>28197</v>
+        <v>29047</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>50741</v>
+        <v>51885</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1330876422889443</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09701774578925595</v>
+        <v>0.09994354012159835</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1745872296263199</v>
+        <v>0.1785227293252957</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>96</v>
@@ -4034,19 +4034,19 @@
         <v>98962</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>81563</v>
+        <v>80405</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>117643</v>
+        <v>120076</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1325104521026706</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.109212902325617</v>
+        <v>0.1076631273923496</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1575238427207739</v>
+        <v>0.1607821629582049</v>
       </c>
     </row>
     <row r="17">
@@ -4063,19 +4063,19 @@
         <v>59985</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>46860</v>
+        <v>46694</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>76107</v>
+        <v>76032</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1314927200208664</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1027202776598386</v>
+        <v>0.1023559049972633</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1668314905347537</v>
+        <v>0.166669167997373</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>61</v>
@@ -4084,19 +4084,19 @@
         <v>60181</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>46856</v>
+        <v>48232</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>74209</v>
+        <v>73593</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2070671705457981</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1612192969608802</v>
+        <v>0.1659545804757195</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2553334385753622</v>
+        <v>0.2532133089653386</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>118</v>
@@ -4105,19 +4105,19 @@
         <v>120167</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>99969</v>
+        <v>102599</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>141354</v>
+        <v>141635</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1609034025798227</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1338588834123272</v>
+        <v>0.1373810115650848</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1892739437406186</v>
+        <v>0.1896495688121373</v>
       </c>
     </row>
     <row r="18">
@@ -4134,19 +4134,19 @@
         <v>112249</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>92974</v>
+        <v>92272</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>131885</v>
+        <v>132495</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2460594262457302</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2038062809838945</v>
+        <v>0.2022674038878742</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2891032719914545</v>
+        <v>0.2904389081766474</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>78</v>
@@ -4155,19 +4155,19 @@
         <v>78206</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>65199</v>
+        <v>63387</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>94456</v>
+        <v>93721</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2690875329664916</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2243312591373229</v>
+        <v>0.2180979528232252</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.325000299552242</v>
+        <v>0.322470565243472</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>184</v>
@@ -4176,19 +4176,19 @@
         <v>190456</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>167454</v>
+        <v>167527</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>217432</v>
+        <v>216342</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2550210836841082</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2242216661608683</v>
+        <v>0.2243196789474915</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2911423489960873</v>
+        <v>0.2896821807299264</v>
       </c>
     </row>
     <row r="19">
@@ -4205,19 +4205,19 @@
         <v>106831</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>89326</v>
+        <v>89871</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>126799</v>
+        <v>126771</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2341809697970345</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1958090564503444</v>
+        <v>0.1970044506730997</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2779540883910879</v>
+        <v>0.277892432083953</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -4226,19 +4226,19 @@
         <v>62143</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>48625</v>
+        <v>49162</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>76051</v>
+        <v>76925</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2138181629715476</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1673051243764951</v>
+        <v>0.169153526056931</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2616732641887077</v>
+        <v>0.2646774491970606</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>162</v>
@@ -4247,19 +4247,19 @@
         <v>168974</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>146323</v>
+        <v>147200</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>192356</v>
+        <v>192788</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.22625654502922</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1959276515440428</v>
+        <v>0.1971007454888593</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2575647076358348</v>
+        <v>0.2581439616185022</v>
       </c>
     </row>
     <row r="20">
@@ -4276,19 +4276,19 @@
         <v>116841</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>98764</v>
+        <v>99897</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>135938</v>
+        <v>137602</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2561241565254339</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.21649918144641</v>
+        <v>0.2189825390485963</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2979867545278242</v>
+        <v>0.3016342167570173</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>49</v>
@@ -4297,19 +4297,19 @@
         <v>51425</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>39744</v>
+        <v>39538</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>65229</v>
+        <v>66058</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1769394912272183</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1367477719769156</v>
+        <v>0.1360391584958494</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.224437092470173</v>
+        <v>0.2272875016133462</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>158</v>
@@ -4318,19 +4318,19 @@
         <v>168266</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>147814</v>
+        <v>144861</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>192438</v>
+        <v>192047</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2253085166041786</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1979236788724412</v>
+        <v>0.1939694955875577</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2576750736145118</v>
+        <v>0.257151701249998</v>
       </c>
     </row>
     <row r="21">
@@ -4422,19 +4422,19 @@
         <v>44760</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32979</v>
+        <v>32597</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>59662</v>
+        <v>58668</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1626762736492903</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1198592971514591</v>
+        <v>0.1184686055385939</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2168342004467018</v>
+        <v>0.2132231625992746</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>37</v>
@@ -4443,19 +4443,19 @@
         <v>38553</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28185</v>
+        <v>28176</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>50696</v>
+        <v>50794</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1986644609258104</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1452340543056308</v>
+        <v>0.145189603627938</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2612364074631093</v>
+        <v>0.2617380498406198</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>76</v>
@@ -4464,19 +4464,19 @@
         <v>83314</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>66712</v>
+        <v>66715</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>101951</v>
+        <v>100242</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1775607419572152</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1421794688042241</v>
+        <v>0.1421860349497988</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2172813976091031</v>
+        <v>0.2136380810462721</v>
       </c>
     </row>
     <row r="23">
@@ -4493,19 +4493,19 @@
         <v>32248</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>22617</v>
+        <v>22355</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>46355</v>
+        <v>45911</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1172019673076148</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08219831796701728</v>
+        <v>0.08124683973052588</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1684720630650734</v>
+        <v>0.1668585623185216</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>19</v>
@@ -4514,19 +4514,19 @@
         <v>20724</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>12946</v>
+        <v>12836</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>30238</v>
+        <v>30810</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1067882162220115</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06671011915503344</v>
+        <v>0.06614222111195268</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1558170656683235</v>
+        <v>0.1587640220490328</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>48</v>
@@ -4535,19 +4535,19 @@
         <v>52972</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>39198</v>
+        <v>39844</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>69040</v>
+        <v>70006</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.112894911028028</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08354018768772463</v>
+        <v>0.08491689478423926</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1471405322477287</v>
+        <v>0.1491991391532901</v>
       </c>
     </row>
     <row r="24">
@@ -4564,19 +4564,19 @@
         <v>57246</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>43617</v>
+        <v>45808</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>71910</v>
+        <v>72794</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2080550565773012</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1585216127041665</v>
+        <v>0.1664847282789193</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2613483046356843</v>
+        <v>0.264561125361384</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>39</v>
@@ -4585,19 +4585,19 @@
         <v>40319</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>29579</v>
+        <v>29512</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>53298</v>
+        <v>52276</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2077625255144038</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1524171170610766</v>
+        <v>0.1520724469260781</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2746438862182248</v>
+        <v>0.2693787713390903</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>90</v>
@@ -4606,19 +4606,19 @@
         <v>97565</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>79542</v>
+        <v>79538</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>115535</v>
+        <v>114771</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2079340677288959</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1695217649253472</v>
+        <v>0.1695132330826702</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2462322295923142</v>
+        <v>0.2446041960510031</v>
       </c>
     </row>
     <row r="25">
@@ -4635,19 +4635,19 @@
         <v>48979</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>36533</v>
+        <v>36598</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>63109</v>
+        <v>64459</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1780089898263292</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.132774406912352</v>
+        <v>0.1330126237599411</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2293638919937663</v>
+        <v>0.2342683936164317</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>31</v>
@@ -4656,19 +4656,19 @@
         <v>31590</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22426</v>
+        <v>21455</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>42988</v>
+        <v>42035</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1627822005100053</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1155614345904611</v>
+        <v>0.1105547632890756</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2215172819612094</v>
+        <v>0.2166074305845591</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>75</v>
@@ -4677,19 +4677,19 @@
         <v>80569</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>63900</v>
+        <v>65097</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>99913</v>
+        <v>99280</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1717112938276718</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1361866541920016</v>
+        <v>0.1387373033940999</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2129383221309099</v>
+        <v>0.2115895717566467</v>
       </c>
     </row>
     <row r="26">
@@ -4706,19 +4706,19 @@
         <v>91916</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>76895</v>
+        <v>76682</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>110670</v>
+        <v>107266</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3340577126394646</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2794657722662901</v>
+        <v>0.2786920447940775</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4022170712339317</v>
+        <v>0.3898479884345304</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>58</v>
@@ -4727,19 +4727,19 @@
         <v>62877</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>50294</v>
+        <v>50129</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>76881</v>
+        <v>76685</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3240025968277691</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2591626976527615</v>
+        <v>0.2583145103184216</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3961669170592018</v>
+        <v>0.3951541959972227</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>144</v>
@@ -4748,19 +4748,19 @@
         <v>154793</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>134332</v>
+        <v>134185</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>175169</v>
+        <v>176506</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3298989854581891</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2862929630818755</v>
+        <v>0.2859804634046295</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3733250968753254</v>
+        <v>0.376175382327272</v>
       </c>
     </row>
     <row r="27">
@@ -4852,19 +4852,19 @@
         <v>180506</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>157291</v>
+        <v>157745</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>208658</v>
+        <v>209814</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1275311896343335</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1111288877421688</v>
+        <v>0.1114499221477569</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1474208987587354</v>
+        <v>0.1482373282085756</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>154</v>
@@ -4873,19 +4873,19 @@
         <v>155972</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>134470</v>
+        <v>134517</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>180906</v>
+        <v>179726</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1511384624453284</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1303030155977221</v>
+        <v>0.1303486731341208</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1752998928961585</v>
+        <v>0.1741564262262325</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>318</v>
@@ -4894,19 +4894,19 @@
         <v>336479</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>300530</v>
+        <v>299167</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>370608</v>
+        <v>369453</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1374856527050584</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.122796831381821</v>
+        <v>0.122240294836708</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1514310842748322</v>
+        <v>0.1509589468042287</v>
       </c>
     </row>
     <row r="29">
@@ -4923,19 +4923,19 @@
         <v>224892</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>197413</v>
+        <v>197754</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>254764</v>
+        <v>254315</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1588901353983913</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1394758416238379</v>
+        <v>0.1397169579988212</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1799959604889625</v>
+        <v>0.1796784731405748</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>187</v>
@@ -4944,19 +4944,19 @@
         <v>188822</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>165072</v>
+        <v>165758</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>215021</v>
+        <v>214513</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1829704497838535</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1599561963641669</v>
+        <v>0.1606207252853838</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2083570341683391</v>
+        <v>0.2078652186189791</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>396</v>
@@ -4965,19 +4965,19 @@
         <v>413714</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>377801</v>
+        <v>376461</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>455666</v>
+        <v>451268</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1690440655961178</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1543699216615807</v>
+        <v>0.1538225244019449</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1861856633507034</v>
+        <v>0.1843887991342271</v>
       </c>
     </row>
     <row r="30">
@@ -4994,19 +4994,19 @@
         <v>362512</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>328416</v>
+        <v>328561</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>397130</v>
+        <v>397192</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.256121346283383</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2320319111510755</v>
+        <v>0.2321343256522257</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2805797492313646</v>
+        <v>0.2806239295597798</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>262</v>
@@ -5015,19 +5015,19 @@
         <v>263594</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>236828</v>
+        <v>237315</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>294133</v>
+        <v>291936</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2554249434927726</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2294888871738673</v>
+        <v>0.2299602123354729</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2850174389544781</v>
+        <v>0.2828882880332569</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>602</v>
@@ -5036,19 +5036,19 @@
         <v>626106</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>583864</v>
+        <v>580174</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>671073</v>
+        <v>669862</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2558276945804954</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2385678645959068</v>
+        <v>0.2370601715653253</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2742013781589935</v>
+        <v>0.273706729928517</v>
       </c>
     </row>
     <row r="31">
@@ -5065,19 +5065,19 @@
         <v>296563</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>264563</v>
+        <v>265590</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>328012</v>
+        <v>328933</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2095273262519248</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1869185167386861</v>
+        <v>0.1876446597597901</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2317467528409896</v>
+        <v>0.2323977011954911</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>187</v>
@@ -5086,19 +5086,19 @@
         <v>190538</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>167301</v>
+        <v>165899</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>214981</v>
+        <v>216972</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1846330474943618</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1621160319890174</v>
+        <v>0.1607576460280092</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2083188653349954</v>
+        <v>0.2102476871134535</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>462</v>
@@ -5107,19 +5107,19 @@
         <v>487101</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>449490</v>
+        <v>450483</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>527156</v>
+        <v>528107</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1990301722372062</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1836623162353848</v>
+        <v>0.1840679514039709</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2153969575972149</v>
+        <v>0.2157851726480946</v>
       </c>
     </row>
     <row r="32">
@@ -5136,19 +5136,19 @@
         <v>350918</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>319194</v>
+        <v>318749</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>385186</v>
+        <v>382986</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2479300024319674</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.225516459590357</v>
+        <v>0.225202119656162</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2721410835931182</v>
+        <v>0.2705871014032485</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>218</v>
@@ -5157,19 +5157,19 @@
         <v>233056</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>204445</v>
+        <v>208251</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>260312</v>
+        <v>263628</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2258330967836837</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1981095525970482</v>
+        <v>0.2017970730440551</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2522445316981143</v>
+        <v>0.2554577745541929</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>546</v>
@@ -5178,19 +5178,19 @@
         <v>583973</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>541213</v>
+        <v>544076</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>621870</v>
+        <v>630932</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2386124148811222</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2211403472221851</v>
+        <v>0.2223101348513493</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2540971793678909</v>
+        <v>0.2577997034686785</v>
       </c>
     </row>
     <row r="33">
